--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
   <si>
     <t>Report_BrickLayer</t>
@@ -343,7 +346,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -372,10 +377,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -403,17 +408,17 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D1:D2 E1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D1:D2 E1">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2">
+  <conditionalFormatting sqref="D1:D2 E1">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -2,16 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Biểu đồ" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -32,12 +35,19 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -121,8 +131,260 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scope!$A$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scope!$D$2</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scope!$A$2</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1174545488"/>
+        <c:axId val="102283218"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1174545488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102283218"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102283218"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174545488"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -324,13 +586,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="25.25"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col min="2" max="3" customWidth="true" width="25.25"/>
+    <col min="4" max="4" customWidth="true" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,7 +645,9 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -2,19 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Biểu đồ" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -31,23 +28,19 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Report_BrickLayer</t>
+    <t>Report_IntroDialog.BE.ID01(Clone)</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -131,260 +124,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scope!$A$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scope!$D$2</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scope!$A$2</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1174545488"/>
-        <c:axId val="102283218"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1174545488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="102283218"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="102283218"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1174545488"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Biểu đồ"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,14 +327,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="25.25"/>
-    <col min="4" max="4" customWidth="true" width="14.25"/>
+    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="25.25"/>
+    <col customWidth="1" min="4" max="4" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,7 +387,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60383F0-C79F-4D5B-B8C0-FCEDBBC88643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Scope" sheetId="1" r:id="rId4"/>
+    <sheet name="Scope" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -34,22 +43,23 @@
     <t>Y</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -59,7 +69,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -69,67 +79,65 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9FC5E8"/>
           <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -319,25 +327,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
-    <col customWidth="1" min="3" max="3" width="25.25"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col min="2" max="2" customWidth="true" width="37.0"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,17 +389,17 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
@@ -414,26 +427,22 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2 E1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E1 D1:D2">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2 E1">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2 E1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60383F0-C79F-4D5B-B8C0-FCEDBBC88643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2363F17-B6C0-4253-A89F-6B742C2EA5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -343,7 +343,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -1,31 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2363F17-B6C0-4253-A89F-6B742C2EA5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Keywords" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TestCase" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="TestSteps" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Biểu đồ" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="IFpYA4CdPI/rzNcCPuMoyUf1T+EFZG9tYf9YZNvAUKs="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>TestCases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Return type</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Verify locator</t>
+  </si>
+  <si>
+    <t>openApp</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>CourseList</t>
+  </si>
+  <si>
+    <t>waitingForCourseListDisplay</t>
+  </si>
+  <si>
+    <t>HomeAiSpeak</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>element,property[,index]</t>
+  </si>
+  <si>
+    <t>getCurrentScence</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>elementDisplay</t>
+  </si>
+  <si>
+    <t>element[,index]</t>
+  </si>
+  <si>
+    <t>clickDownAndUp</t>
+  </si>
+  <si>
+    <t>horizontalSwipe</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>waitForObject</t>
+  </si>
+  <si>
+    <t>element[,timeout(s)]</t>
+  </si>
+  <si>
+    <t>simulateClick</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>RunMode</t>
@@ -37,42 +105,185 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Report_IntroDialog.BE.ID01(Clone)</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Bật mode debug AI Speak</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị game Intro diaglog ở act 1 của flow 3</t>
+  </si>
+  <si>
+    <t>TSID</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Proceed</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>Verify_step</t>
+  </si>
+  <si>
+    <t>Param_verify_Step</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>TS01</t>
+  </si>
+  <si>
+    <t>Click nút Home</t>
+  </si>
+  <si>
+    <t>HomeButton,Button.onClick()</t>
+  </si>
+  <si>
+    <t>TS02</t>
+  </si>
+  <si>
+    <t>Chọn khóa AI Speak</t>
+  </si>
+  <si>
+    <t>AISpeaking,Button.onClick()</t>
+  </si>
+  <si>
+    <t>AISpeakingScene</t>
+  </si>
+  <si>
+    <t>TS03</t>
+  </si>
+  <si>
+    <t>Click Monkey debug</t>
+  </si>
+  <si>
+    <t>ButtonMonkey</t>
+  </si>
+  <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Vuốt ngang đến mục AI Speak</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>Click Unclock Lesson dropdown</t>
+  </si>
+  <si>
+    <t>DebugAI/button_debug_full_lesson</t>
+  </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>Chọn On Unlock Leson</t>
+  </si>
+  <si>
+    <t>Item 0: On Unlock Lesson</t>
+  </si>
+  <si>
+    <t>TS07</t>
+  </si>
+  <si>
+    <t>Close Debug</t>
+  </si>
+  <si>
+    <t>DebugView/Debug/Close,Button.onClick()</t>
+  </si>
+  <si>
+    <t>Play lesson 3</t>
+  </si>
+  <si>
+    <t>Image1/LessonSLot3_3/Lesson(Clone)</t>
+  </si>
+  <si>
+    <t>IntroDialog_GamePlay(Clone)/ButtonNextGame</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -82,65 +293,182 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="23">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
     <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
     <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="923072619" name="Chart1" title="Biểu đồ">
+          <a:extLst>
+            <a:ext uri="GoogleSheetsCustomDataVersion1">
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,122 +658,1086 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="37.0"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625"/>
+    <col customWidth="1" min="1" max="1" width="40.5"/>
+    <col customWidth="1" min="2" max="2" width="33.75"/>
+    <col customWidth="1" min="3" max="3" width="19.25"/>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
+    <col customWidth="1" min="5" max="5" width="29.25"/>
+    <col customWidth="1" min="6" max="9" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11">
+      <formula1>"void,String"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="54.63"/>
+    <col customWidth="1" min="3" max="3" width="15.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="13">
+        <f> COUNTIF(D:D,"PASS")</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="J2" s="13">
+        <f> COUNTIF(D:D,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1 D1:D2">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="12.13"/>
+    <col customWidth="1" min="3" max="3" width="43.75"/>
+    <col customWidth="1" min="4" max="4" width="31.25"/>
+    <col customWidth="1" min="5" max="5" width="36.75"/>
+    <col customWidth="1" min="6" max="6" width="14.25"/>
+    <col customWidth="1" min="7" max="7" width="20.75"/>
+    <col customWidth="1" min="8" max="8" width="25.5"/>
+    <col customWidth="1" min="9" max="9" width="29.38"/>
+    <col customWidth="1" min="10" max="10" width="28.5"/>
+    <col customWidth="1" min="12" max="12" width="24.63"/>
+    <col customWidth="1" min="13" max="13" width="20.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"SKIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D9 H2:H9">
+      <formula1>Keywords!$A$2:$A9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A9">
+      <formula1>TestCase!$A$2:$A9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <sheetProtection objects="1" selectLockedCells="1" selectUnlockedCells="1" sheet="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>

--- a/src/main/java/testcases/Scope.xlsx
+++ b/src/main/java/testcases/Scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -394,7 +394,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
